--- a/results/SupplementryTable6.xlsx
+++ b/results/SupplementryTable6.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Upregulated" sheetId="1" r:id="rId1"/>
-    <sheet name="DownRegulated" sheetId="2" r:id="rId2"/>
+    <sheet name="pathways.up" sheetId="1" r:id="rId1"/>
+    <sheet name="pathways.down" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,30 +366,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>numGenes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>numGenes</t>
+          <t>Genes</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Genes</t>
+          <t>Adj.pvalue</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Adj.pvalue</t>
+          <t>PercentageCoverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PercentageCoverage</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FoldEnrichment</t>
         </is>
@@ -398,494 +393,1993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nucleosome assembly</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GO:0006334</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>H1-2 H2BC12 H2BC21 H2BC5 H4C15 H4C8 H4C9</t>
-        </is>
+          <t>DNA Damage/Telomere Stress Induced Senescence</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CDKN1A H1-2 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.0001134225371430731</v>
       </c>
       <c r="E2">
-        <v>0.00434154131454434</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="F2">
-        <v>13.20754716981132</v>
-      </c>
-      <c r="G2">
-        <v>17.11465892597968</v>
+        <v>18.58645276292335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mitotic G1 DNA damage checkpoint signaling</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GO:0031571</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CDKN1A MDM2 PLK2 RPS27L TRIAP1</t>
-        </is>
+          <t>DNA methylation</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.0001134225371430731</v>
       </c>
       <c r="E3">
-        <v>0.006965231230309654</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="F3">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="G3">
-        <v>24.91969568892646</v>
+        <v>36.45804195804196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mitotic G1/S transition checkpoint signaling</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GO:0044819</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CDKN1A MDM2 PLK2 RPS27L TRIAP1</t>
-        </is>
+          <t>ERCC6 (CSB) and EHMT2 (G9a) positively regulate rRNA expression</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CBX3 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0001134225371430731</v>
       </c>
       <c r="E4">
-        <v>0.006965231230309654</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="F4">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="G4">
-        <v>24.91969568892646</v>
+        <v>20.47951739618406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nucleosome organization</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GO:0034728</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>H1-2 H2BC12 H2BC21 H2BC5 H4C15 H4C8 H4C9</t>
-        </is>
+          <t>RNA Polymerase I Promoter Opening</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.0001134225371430731</v>
       </c>
       <c r="E5">
-        <v>0.01048802520708302</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F5">
-        <v>8.860759493670885</v>
-      </c>
-      <c r="G5">
-        <v>11.48198636806232</v>
+        <v>33.8538961038961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>negative regulation of G1/S transition of mitotic cell cycle</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GO:2000134</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CDKN1A INHBA MDM2 PLK2 RPS27L TRIAP1</t>
-        </is>
+          <t>Packaging Of Telomere Ends</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.0001280414094427642</v>
       </c>
       <c r="E6">
-        <v>0.01061918785712865</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>12.95824175824176</v>
+        <v>31.5969696969697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DNA damage response, signal transduction by p53 class mediator resulting in cell cycle arrest</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GO:0006977</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CDKN1A MDM2 PLK2 TRIAP1</t>
-        </is>
+          <t>Activated PKN1 stimulates transcription of AR (androgen receptor) regulated genes KLK2 and KLK3</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.0001280414094427642</v>
       </c>
       <c r="E7">
-        <v>0.01061918785712865</v>
+        <v>37.5</v>
       </c>
       <c r="F7">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="G7">
-        <v>34.55531135531135</v>
+        <v>29.62215909090909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>negative regulation of cell cycle G1/S phase transition</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GO:1902807</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CDKN1A INHBA MDM2 PLK2 RPS27L TRIAP1</t>
-        </is>
+          <t>Transcriptional regulation of granulopoiesis</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CDKN1A H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E8">
-        <v>0.01591332121228008</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="F8">
-        <v>9.230769230769232</v>
-      </c>
-      <c r="G8">
-        <v>11.9614539306847</v>
+        <v>17.83699902248289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>intrinsic apoptotic signaling pathway by p53 class mediator</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GO:0072332</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CDKN1A MDM2 RPS27L RRM2B TAF9B TRIAP1</t>
-        </is>
+          <t>Assembly of the ORC complex at the origin of replication</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E9">
-        <v>0.02375064199744092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F9">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="G9">
-        <v>11.78021978021978</v>
+        <v>26.33080808080808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>negative regulation of intrinsic apoptotic signaling pathway by p53 class mediator</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GO:1902254</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MDM2 RRM2B TAF9B TRIAP1</t>
-        </is>
+          <t>Defective pyroptosis</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E10">
-        <v>0.02375064199744092</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="G10">
-        <v>27.28050896471949</v>
+        <v>23.69772727272727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>collagen catabolic process</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GO:0030574</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CTSL MMP1 MMP13 MMP3</t>
-        </is>
+          <t>SIRT1 negatively regulates rRNA expression</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E11">
-        <v>0.02622673776267806</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F11">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="G11">
-        <v>23.56043956043956</v>
+        <v>26.33080808080808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>chromatin assembly</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GO:0031497</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>H1-2 H2BC12 H2BC21 H2BC5 H4C15 H4C8 H4C9</t>
-        </is>
+          <t>Cleavage of the damaged purine</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E12">
-        <v>0.03613101138286914</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F12">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="G12">
-        <v>7.622495151906918</v>
+        <v>26.33080808080808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>protein-DNA complex assembly</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GO:0065004</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>H1-2 H2BC12 H2BC21 H2BC5 H4C15 H4C8 H4C9</t>
-        </is>
+          <t>Depurination</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E13">
-        <v>0.03613101138286914</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F13">
-        <v>6.25</v>
-      </c>
-      <c r="G13">
-        <v>8.098901098901099</v>
+        <v>26.33080808080808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>negative regulation of megakaryocyte differentiation</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GO:0045653</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>H4C15 H4C8 H4C9</t>
-        </is>
+          <t>Recognition and association of DNA glycosylase with site containing an affected purine</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.0001645020419188024</v>
       </c>
       <c r="E14">
-        <v>0.04110814633723239</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F14">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="G14">
-        <v>55.53532182103611</v>
+        <v>26.33080808080808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>developmental process</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GO:0032502</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>AIMP1 ALDH1A2 BMP2 CALM2 CCNYL1 CDKN1A CELSR1 CTSL DUSP6 ECE1 FABP5 FAM210B FN1 FZD6 GDF6 GIT1 H4C15 H4C8 H4C9 HSP90AB1 IGFBP1 INHBA ITGA3 MAPK6 MDM2 MEDAG MMP13 NREP NTN4 OSTM1 PALMD PLK2 POSTN RAB23 RCAN1 RND3 RRM2B SERPINE1 SNX3 SOS2 SPP1 SS18 TP53INP1 UHMK1 ZMYM6</t>
-        </is>
+          <t>Signal Transduction</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>41</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ALDH1A2 ARL4C ARPC1A ATP6V1C1 ATP6V1D BMP2 CALM2 CDKN1A DUSP6 ECE1 FABP5 FN1 FZD6 GIT1 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 HSP90AB1 HSPE1 IL1RL1 INHBA ITGA3 MAPK6 MDM2 MMP3 PLCB1 PSMA2 PSMA6 RGS2 RND3 SERPINE1 SNX3 SOS2 SPP1 TXNL1 UHMK1 USP4 VPS26A</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.0002244400905731297</v>
       </c>
       <c r="E15">
-        <v>0.04110814633723239</v>
+        <v>2.72787757817698</v>
       </c>
       <c r="F15">
-        <v>1.258741258741259</v>
-      </c>
-      <c r="G15">
-        <v>1.631107354184277</v>
+        <v>2.154816629367528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>signal transduction</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GO:0007165</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>41</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AIMP1 ALDH1A2 BMP2 CALM2 CCNYL1 CDKN1A CELSR1 CHURC1 DUSP6 ECE1 FABP5 FN1 FZD6 GDF6 GIT1 GSTO1 HSP90AB1 IGFBP1 IL1RL1 INHBA ITGA3 MAPK6 MDM2 NAMPT NCEH1 NREP PLK2 POSTN RCAN1 RND3 RPS27L RRM2B SERPINE1 SNX3 SOS2 SPP1 SS18 TAF9B TMSB4X TRIAP1 TXNDC12</t>
-        </is>
+          <t>PRC2 methylates histones and DNA</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.0002244400905731297</v>
       </c>
       <c r="E16">
-        <v>0.04184888243538926</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F16">
-        <v>1.31494547787043</v>
-      </c>
-      <c r="G16">
-        <v>1.703938140115177</v>
+        <v>21.54338842975206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>anatomical structure development</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GO:0048856</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>42</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AIMP1 ALDH1A2 BMP2 CALM2 CDKN1A CELSR1 CTSL DUSP6 ECE1 FABP5 FAM210B FN1 FZD6 GDF6 GIT1 H4C15 H4C8 H4C9 HSP90AB1 IGFBP1 INHBA ITGA3 MAPK6 MDM2 MMP13 NREP NTN4 OSTM1 PALMD PLK2 POSTN RAB23 RCAN1 RND3 RRM2B SERPINE1 SNX3 SOS2 SPP1 SS18 UHMK1 ZMYM6</t>
-        </is>
+          <t>Condensation of Prophase Chromosomes</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.0002563417276201393</v>
       </c>
       <c r="E17">
-        <v>0.04978718151620899</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F17">
-        <v>1.280487804878049</v>
-      </c>
-      <c r="G17">
-        <v>1.659287054409006</v>
+        <v>21.54338842975206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>regulation of intrinsic apoptotic signaling pathway by p53 class mediator</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GO:1902253</t>
-        </is>
-      </c>
-      <c r="C18">
+          <t xml:space="preserve">Cleavage of the damaged pyrimidine </t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.0002726803309094137</v>
+      </c>
+      <c r="E18">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F18">
+        <v>21.54338842975206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Depyrimidination</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.0002726803309094137</v>
+      </c>
+      <c r="E19">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F19">
+        <v>21.54338842975206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Recognition and association of DNA glycosylase with site containing an affected pyrimidine</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.0002726803309094137</v>
+      </c>
+      <c r="E20">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F20">
+        <v>21.54338842975206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Deposition of new CENPA-containing nucleosomes at the centromere</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.0002726803309094137</v>
+      </c>
+      <c r="E21">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="F21">
+        <v>20.60671936758893</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nucleosome assembly</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.0002726803309094137</v>
+      </c>
+      <c r="E22">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="F22">
+        <v>20.60671936758893</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Signaling by Nuclear Receptors</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ALDH1A2 ARL4C CALM2 FABP5 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 HSP90AB1 MMP3 UHMK1</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.0002827143878012369</v>
+      </c>
+      <c r="E23">
+        <v>6.989247311827956</v>
+      </c>
+      <c r="F23">
+        <v>5.520975887911371</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RNA Polymerase I Promoter Escape</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CBX3 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.0003487920963791256</v>
+      </c>
+      <c r="E24">
+        <v>18.42105263157895</v>
+      </c>
+      <c r="F24">
+        <v>14.5512360446571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Base-Excision Repair, AP Site Formation</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.0004101582012767739</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>19.74810606060606</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Meiotic recombination</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.0004101582012767739</v>
+      </c>
+      <c r="E26">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="F26">
+        <v>18.22902097902098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Meiotic synapsis</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.0005297381134843384</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>15.79848484848485</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Signaling by WNT</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CALM2 FZD6 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PLCB1 PSMA2 PSMA6 SNX3 VPS26A</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.0006890321068287404</v>
+      </c>
+      <c r="E28">
+        <v>6.310679611650485</v>
+      </c>
+      <c r="F28">
+        <v>4.984958811415122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Positive epigenetic regulation of rRNA expression</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CBX3 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.001580707316302033</v>
+      </c>
+      <c r="E29">
+        <v>12.72727272727273</v>
+      </c>
+      <c r="F29">
+        <v>10.05358126721763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RUNX1 regulates transcription of genes involved in differentiation of HSCs</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.001580707316302033</v>
+      </c>
+      <c r="E30">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F30">
+        <v>9.293226381461675</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Formation of the beta-catenin:TCF transactivating complex</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.001580707316302033</v>
+      </c>
+      <c r="E31">
+        <v>16.21621621621622</v>
+      </c>
+      <c r="F31">
+        <v>12.80958230958231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HDACs deacetylate histones</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.001587632567631709</v>
+      </c>
+      <c r="E32">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="F32">
+        <v>12.47248803827751</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Inhibition of DNA recombination at telomere</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.001804955055679028</v>
+      </c>
+      <c r="E33">
+        <v>19.35483870967742</v>
+      </c>
+      <c r="F33">
+        <v>15.28885630498534</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RUNX1 regulates genes involved in megakaryocyte differentiation and platelet function</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.001897005836588357</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>11.84886363636364</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pre-NOTCH Transcription and Translation</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0.001897005836588357</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>11.84886363636364</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RNA Polymerase I Promoter Clearance</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CBX3 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0.001897005836588357</v>
+      </c>
+      <c r="E36">
+        <v>12.28070175438596</v>
+      </c>
+      <c r="F36">
+        <v>9.700824029771399</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RNA Polymerase I Transcription</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CBX3 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0.002081457730488526</v>
+      </c>
+      <c r="E37">
+        <v>12.06896551724138</v>
+      </c>
+      <c r="F37">
+        <v>9.533568443051202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Senescence-Associated Secretory Phenotype (SASP)</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CDKN1A H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0.002081457730488526</v>
+      </c>
+      <c r="E38">
+        <v>13.20754716981132</v>
+      </c>
+      <c r="F38">
+        <v>10.43296169239565</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Amyloid fiber formation</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0.002407937581026037</v>
+      </c>
+      <c r="E39">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="F39">
+        <v>12.47248803827751</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ESR-mediated signaling</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CALM2 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 HSP90AB1 MMP3 UHMK1</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>0.002592914901264943</v>
+      </c>
+      <c r="E40">
+        <v>7.042253521126761</v>
+      </c>
+      <c r="F40">
+        <v>5.56284677763551</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RHO GTPases activate PKNs</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.002614765977658723</v>
+      </c>
+      <c r="E41">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="F41">
+        <v>12.15268065268065</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B-WICH complex positively regulates rRNA expression</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>0.002705100650448982</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>11.84886363636364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ub-specific processing proteases</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 MDM2 PSMA2 PSMA6 SNX3 TAF9B USP4</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0.002987489619344382</v>
+      </c>
+      <c r="E43">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="F43">
+        <v>5.447753396029259</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oxidative Stress Induced Senescence</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 MDM2</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>0.002987489619344382</v>
+      </c>
+      <c r="E44">
+        <v>10.76923076923077</v>
+      </c>
+      <c r="F44">
+        <v>8.506876456876457</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Meiosis</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>0.003083700367368996</v>
+      </c>
+      <c r="E45">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="F45">
+        <v>10.30335968379447</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>0.003705517200272819</v>
+      </c>
+      <c r="E46">
+        <v>12.5</v>
+      </c>
+      <c r="F46">
+        <v>9.874053030303031</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Diseases of programmed cell death</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0.003961730348323428</v>
+      </c>
+      <c r="E47">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="F47">
+        <v>10.77169421487603</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Assembly of the pre-replicative complex</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0.004078011256164053</v>
+      </c>
+      <c r="E48">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="F48">
+        <v>7.523088023088023</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Pre-NOTCH Expression and Processing</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>0.004474553772719398</v>
+      </c>
+      <c r="E49">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F49">
+        <v>9.293226381461675</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cellular Senescence</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CDKN1A H1-2 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 MDM2</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>0.004485413598852306</v>
+      </c>
+      <c r="E50">
+        <v>7.43801652892562</v>
+      </c>
+      <c r="F50">
+        <v>5.875469571750563</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Generic Transcription Pathway</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BMP2 CALM2 CBX3 CDKN1A CTSL H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 IGFBP1 MDM2 MMP13 NAMPT PLK2 PSMA2 PSMA6 RRM2B SERPINE1 SPP1 TAF9B TP53BP2 TP53INP1 TRIAP1</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0.00601545581553437</v>
+      </c>
+      <c r="E51">
+        <v>3.045066991473813</v>
+      </c>
+      <c r="F51">
+        <v>2.405372236371018</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Extracellular matrix organization</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BMP2 CTSL FN1 ITGA3 MMP1 MMP13 MMP3 NTN4 SERPINE1 SPP1</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0.006629622307627806</v>
+      </c>
+      <c r="E52">
+        <v>5.347593582887701</v>
+      </c>
+      <c r="F52">
+        <v>4.224193809755307</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DNA Replication Pre-Initiation</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>0.007487992513679623</v>
+      </c>
+      <c r="E53">
+        <v>8.60215053763441</v>
+      </c>
+      <c r="F53">
+        <v>6.795047246660149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HCMV Late Events</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>0.008281355598605447</v>
+      </c>
+      <c r="E54">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F54">
+        <v>8.776936026936026</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NoRC negatively regulates rRNA expression</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>0.008321192395949115</v>
+      </c>
+      <c r="E55">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="F55">
+        <v>9.11451048951049</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Transcriptional regulation by small RNAs</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>0.009186125471552439</v>
+      </c>
+      <c r="E56">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="F56">
+        <v>8.617355371900826</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Negative epigenetic regulation of rRNA expression</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>0.009446823963205881</v>
+      </c>
+      <c r="E57">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F57">
+        <v>8.776936026936026</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TCF dependent signaling in response to WNT</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FZD6 H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>0.009653946097781689</v>
+      </c>
+      <c r="E58">
+        <v>6.382978723404255</v>
+      </c>
+      <c r="F58">
+        <v>5.042069632495164</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Base Excision Repair</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>0.00977501054244</v>
+      </c>
+      <c r="E59">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="F59">
+        <v>9.672541743970315</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nonhomologous End-Joining (NHEJ)</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>0.01031406526078414</v>
+      </c>
+      <c r="E60">
+        <v>13.1578947368421</v>
+      </c>
+      <c r="F60">
+        <v>10.39374003189793</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Activation of anterior HOX genes in hindbrain development during early embryogenesis</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>0.01081820314561326</v>
+      </c>
+      <c r="E61">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="F61">
+        <v>8.314992025518341</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Activation of HOX genes during differentiation</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>0.01081820314561326</v>
+      </c>
+      <c r="E62">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="F62">
+        <v>8.314992025518341</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Transcriptional regulation by RUNX1</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CTSL H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>0.01149915372374846</v>
+      </c>
+      <c r="E63">
+        <v>6.081081081081082</v>
+      </c>
+      <c r="F63">
+        <v>4.803593366093366</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HCMV Early Events</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>0.01363590389419571</v>
+      </c>
+      <c r="E64">
+        <v>8.955223880597014</v>
+      </c>
+      <c r="F64">
+        <v>7.073948439620082</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Transport of inorganic cations/anions and amino acids/oligopeptides</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CALM2 SLC26A4 SLC3A2 SLC7A2 SLC9A8</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>0.01465171184717945</v>
+      </c>
+      <c r="E65">
+        <v>9.615384615384617</v>
+      </c>
+      <c r="F65">
+        <v>7.595425407925408</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estrogen-dependent gene expression</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 HSP90AB1</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>0.0147693571721545</v>
+      </c>
+      <c r="E66">
+        <v>7.777777777777778</v>
+      </c>
+      <c r="F66">
+        <v>6.14385521885522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DNA Replication</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 PSMA2 PSMA6</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>0.01572981368528224</v>
+      </c>
+      <c r="E67">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="F67">
+        <v>5.851290684624018</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Degradation of the extracellular matrix</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CTSL FN1 MMP1 MMP13 MMP3 SPP1</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>0.01572981368528224</v>
+      </c>
+      <c r="E68">
+        <v>7.59493670886076</v>
+      </c>
+      <c r="F68">
+        <v>5.999424626006904</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Recruitment and ATM-mediated phosphorylation of repair and signaling proteins at DNA double strand breaks</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>0.02196227577994204</v>
+      </c>
+      <c r="E69">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F69">
+        <v>8.776936026936028</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Activation of Matrix Metalloproteinases</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MMP1 MMP13 MMP3</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>0.02196489954400168</v>
+      </c>
+      <c r="E70">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F70">
+        <v>21.54338842975206</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NPAS4 regulates expression of target genes</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MDM2 NAMPT PLK2</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>0.0220189234883333</v>
+      </c>
+      <c r="E71">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="F71">
+        <v>18.22902097902098</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DNA Double Strand Break Response</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>0.02267083769720272</v>
+      </c>
+      <c r="E72">
+        <v>10.8695652173913</v>
+      </c>
+      <c r="F72">
+        <v>8.586133069828723</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Gene Silencing by RNA</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>0.02360625606880893</v>
+      </c>
+      <c r="E73">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="F73">
+        <v>6.58270202020202</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Telomere Maintenance</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>0.0268964876492116</v>
+      </c>
+      <c r="E74">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="F74">
+        <v>7.644428152492669</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TP53 Regulates Transcription of Genes Involved in Cytochrome C Release</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TP53BP2 TP53INP1 TRIAP1</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>0.0282839171895066</v>
+      </c>
+      <c r="E75">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="F75">
+        <v>18.22902097902098</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HATs acetylate histones</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>0.02925427723281353</v>
+      </c>
+      <c r="E76">
+        <v>7.5</v>
+      </c>
+      <c r="F76">
+        <v>5.924431818181819</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Deubiquitination</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 MDM2 PSMA2 PSMA6 SNX3 TAF9B USP4</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>0.03113417133174147</v>
+      </c>
+      <c r="E77">
+        <v>4.739336492890995</v>
+      </c>
+      <c r="F77">
+        <v>3.743716788740486</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RNA Polymerase II Transcription</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BMP2 CALM2 CBX3 CDKN1A CTSL H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8 IGFBP1 MDM2 MMP13 NAMPT PLK2 PSMA2 PSMA6 RRM2B SERPINE1 SPP1 TAF9B TP53BP2 TP53INP1 TRIAP1</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>0.03374235794361779</v>
+      </c>
+      <c r="E78">
+        <v>2.662406815761448</v>
+      </c>
+      <c r="F78">
+        <v>2.103099686965502</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mitotic Prophase</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>H2AC6 H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>0.03871765648577684</v>
+      </c>
+      <c r="E79">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="F79">
+        <v>5.642316017316017</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Collagen degradation</t>
+        </is>
+      </c>
+      <c r="B80">
         <v>4</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MDM2 RRM2B TAF9B TRIAP1</t>
-        </is>
-      </c>
-      <c r="E18">
-        <v>0.04978718151620899</v>
-      </c>
-      <c r="F18">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="G18">
-        <v>19.93575655114117</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CTSL MMP1 MMP13 MMP3</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>0.03905480361696242</v>
+      </c>
+      <c r="E80">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="F80">
+        <v>8.101787101787101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platelet degranulation </t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CALM2 FN1 LHFPL2 SCCPDH SERPINE1 TMSB4X</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>0.03999612267637937</v>
+      </c>
+      <c r="E81">
+        <v>7.058823529411764</v>
+      </c>
+      <c r="F81">
+        <v>5.575935828877006</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Basigin interactions</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ITGA3 MMP1 SLC3A2</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>0.03999612267637937</v>
+      </c>
+      <c r="E82">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="F82">
+        <v>13.93983957219251</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>G2/M DNA damage checkpoint</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>H2BC12 H2BC21 H2BC5 H4C15 H4C8</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>0.04176345175441199</v>
+      </c>
+      <c r="E83">
+        <v>9.433962264150944</v>
+      </c>
+      <c r="F83">
+        <v>7.452115494568324</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Response to elevated platelet cytosolic Ca2+</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CALM2 FN1 LHFPL2 SCCPDH SERPINE1 TMSB4X</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>0.04517228270153933</v>
+      </c>
+      <c r="E84">
+        <v>6.818181818181817</v>
+      </c>
+      <c r="F84">
+        <v>5.385847107438016</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -909,30 +2403,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>numGenes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>numGenes</t>
+          <t>Genes</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Genes</t>
+          <t>Adj.pvalue</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Adj.pvalue</t>
+          <t>PercentageCoverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PercentageCoverage</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FoldEnrichment</t>
         </is>
@@ -941,59 +2430,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>regulation of collagen fibril organization</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GO:1904026</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EFEMP2 EMILIN1 TNXB</t>
-        </is>
+          <t>ECM proteoglycans</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ACAN COL6A1 COL9A2 COL9A3 COMP HSPG2 TNXB</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.009915562570681553</v>
       </c>
       <c r="E2">
-        <v>0.04658783977121006</v>
+        <v>13.46153846153846</v>
       </c>
       <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>69.36470588235295</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tube development</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GO:0035295</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AMOTL2 COMP CRLF1 DVL1 EFEMP2 EMILIN1 EPN1 FKBP8 HSPG2 JUNB MEGF8 MFGE8 PKD1 PLXNA4 SLC12A2 THBS2 THY1</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>0.04658783977121006</v>
-      </c>
-      <c r="F3">
-        <v>2.537313432835821</v>
-      </c>
-      <c r="G3">
-        <v>3.52</v>
+        <v>12.4215452688904</v>
       </c>
     </row>
   </sheetData>
